--- a/result.xlsx
+++ b/result.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13650" windowHeight="7815" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13650" windowHeight="7820"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="Detail" sheetId="2" r:id="rId2"/>
+    <sheet name="Imdb" sheetId="2" r:id="rId2"/>
+    <sheet name="ppt_movie" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="34">
   <si>
     <t>Model</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -90,6 +91,54 @@
   </si>
   <si>
     <t xml:space="preserve"> 0.00948197733889729]</t>
+  </si>
+  <si>
+    <t>BERT-base-chinese</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>IMDB</t>
+  </si>
+  <si>
+    <t>PTT</t>
+  </si>
+  <si>
+    <t>R.M</t>
+  </si>
+  <si>
+    <t>BertLLR</t>
+  </si>
+  <si>
+    <t>Bert</t>
+  </si>
+  <si>
+    <t>Multinomial NB</t>
+  </si>
+  <si>
+    <t>SVM (linear)</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>KNN</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>XGBoost</t>
+  </si>
+  <si>
+    <t>TextCNN</t>
+  </si>
+  <si>
+    <t>LSTM</t>
   </si>
 </sst>
 </file>
@@ -97,9 +146,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -130,13 +179,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -153,20 +216,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -449,17 +518,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="11.125" style="1" customWidth="1"/>
-    <col min="5" max="8" width="11.125" customWidth="1"/>
+    <col min="1" max="1" width="13.9140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.08203125" style="1" customWidth="1"/>
+    <col min="5" max="8" width="11.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -469,10 +538,10 @@
       <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -493,31 +562,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <f>Detail!L2</f>
+        <f>Imdb!L2</f>
         <v>1.6119487568383255E-2</v>
       </c>
       <c r="C2" s="1">
-        <f>Detail!L7</f>
+        <f>Imdb!L7</f>
         <v>1.6404530866952212E-2</v>
       </c>
       <c r="D2" s="1">
-        <f>Detail!L12</f>
+        <f>Imdb!L12</f>
         <v>1.6585451497154659E-2</v>
       </c>
       <c r="E2" s="1">
-        <f>Detail!L17</f>
+        <f>Imdb!L17</f>
         <v>1.6140571153190557E-2</v>
       </c>
       <c r="F2" s="4">
-        <f>Detail!L22</f>
+        <f>Imdb!L22</f>
         <v>1.5682572124481771E-2</v>
       </c>
       <c r="G2" s="2">
-        <f>Detail!L27</f>
+        <f>Imdb!L27</f>
         <v>1.5054487363898261E-2</v>
       </c>
       <c r="H2" s="1">
-        <f>Detail!L32</f>
+        <f>Imdb!L32</f>
         <v>1.5488236087765679E-2</v>
       </c>
     </row>
@@ -526,31 +595,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <f>Detail!L3</f>
+        <f>Imdb!L3</f>
         <v>0.996672</v>
       </c>
       <c r="C3" s="1">
-        <f>Detail!L8</f>
+        <f>Imdb!L8</f>
         <v>0.9966839999999999</v>
       </c>
       <c r="D3" s="1">
-        <f>Detail!L13</f>
+        <f>Imdb!L13</f>
         <v>0.99675600000000009</v>
       </c>
       <c r="E3" s="4">
-        <f>Detail!L18</f>
+        <f>Imdb!L18</f>
         <v>0.99685599999999985</v>
       </c>
       <c r="F3" s="4">
-        <f>Detail!L23</f>
+        <f>Imdb!L23</f>
         <v>0.99689599999999989</v>
       </c>
       <c r="G3" s="1">
-        <f>Detail!L28</f>
+        <f>Imdb!L28</f>
         <v>0.99703600000000014</v>
       </c>
       <c r="H3" s="2">
-        <f>Detail!L33</f>
+        <f>Imdb!L33</f>
         <v>0.99728799999999995</v>
       </c>
     </row>
@@ -559,36 +628,115 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <f>Detail!L4</f>
+        <f>Imdb!L4</f>
         <v>0.93527990136296002</v>
       </c>
-      <c r="C4" s="1">
-        <f>Detail!L9</f>
+      <c r="C4" s="6">
+        <f>Imdb!L9</f>
         <v>0.9356679221930575</v>
       </c>
       <c r="D4" s="2">
-        <f>Detail!L14</f>
+        <f>Imdb!L14</f>
         <v>0.93577194120348506</v>
       </c>
       <c r="E4" s="1">
-        <f>Detail!L19</f>
+        <f>Imdb!L19</f>
         <v>0.93553196116785708</v>
       </c>
       <c r="F4" s="1">
-        <f>Detail!L24</f>
+        <f>Imdb!L24</f>
         <v>0.93543589959757978</v>
       </c>
       <c r="G4" s="1">
-        <f>Detail!L29</f>
+        <f>Imdb!L29</f>
         <v>0.93567195869410524</v>
       </c>
       <c r="H4" s="1">
-        <f>Detail!L34</f>
+        <f>Imdb!L34</f>
         <v>0.93556388993800754</v>
       </c>
     </row>
-    <row r="5" spans="1:8"/>
-    <row r="6" spans="1:8"/>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.93579999999999997</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.85819999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.9304</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.87219999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -600,11 +748,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -1489,4 +1637,338 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.49981227885714902</v>
+      </c>
+      <c r="C2">
+        <v>0.30011040177294801</v>
+      </c>
+      <c r="D2">
+        <v>0.208341134965873</v>
+      </c>
+      <c r="E2">
+        <v>0.129450536859049</v>
+      </c>
+      <c r="F2">
+        <f>AVERAGE(B2:E2)</f>
+        <v>0.28442858811375477</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.89840989399293203</v>
+      </c>
+      <c r="C3">
+        <v>0.91475265017667795</v>
+      </c>
+      <c r="D3">
+        <v>0.96996466431095396</v>
+      </c>
+      <c r="E3">
+        <v>0.97747349823321505</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F4" si="0">AVERAGE(B3:E3)</f>
+        <v>0.94015017667844469</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.861057602101444</v>
+      </c>
+      <c r="C4">
+        <v>0.83551384156140496</v>
+      </c>
+      <c r="D4">
+        <v>0.86724241862734197</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.858245617330475</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0.85551486990516645</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>0.20142832579432199</v>
+      </c>
+      <c r="C7">
+        <v>6.7242828892989895E-2</v>
+      </c>
+      <c r="D7">
+        <v>5.8380490011522401E-2</v>
+      </c>
+      <c r="E7">
+        <v>5.39824414709714E-2</v>
+      </c>
+      <c r="F7">
+        <v>5.2804516090578499E-2</v>
+      </c>
+      <c r="G7">
+        <v>5.1347154258212499E-2</v>
+      </c>
+      <c r="H7">
+        <v>4.9809464620767303E-2</v>
+      </c>
+      <c r="I7">
+        <v>4.8746730738752297E-2</v>
+      </c>
+      <c r="J7">
+        <v>4.7042811748532302E-2</v>
+      </c>
+      <c r="K7">
+        <v>4.6127993088792701E-2</v>
+      </c>
+      <c r="L7">
+        <f>AVERAGE(B7:K7)</f>
+        <v>6.7691275671544135E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>0.98321554770317998</v>
+      </c>
+      <c r="C8">
+        <v>0.98365724381625397</v>
+      </c>
+      <c r="D8">
+        <v>0.98454063604240205</v>
+      </c>
+      <c r="E8">
+        <v>0.98454063604240205</v>
+      </c>
+      <c r="F8">
+        <v>0.98454063604240205</v>
+      </c>
+      <c r="G8">
+        <v>0.98498233215547704</v>
+      </c>
+      <c r="H8">
+        <v>0.98542402826855102</v>
+      </c>
+      <c r="I8">
+        <v>0.98586572438162501</v>
+      </c>
+      <c r="J8">
+        <v>0.98630742049469899</v>
+      </c>
+      <c r="K8">
+        <v>0.98586572438162501</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ref="L8:L9" si="1">AVERAGE(B8:K8)</f>
+        <v>0.98489399293286173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>0.86427322354218505</v>
+      </c>
+      <c r="C9">
+        <v>0.87052724052973995</v>
+      </c>
+      <c r="D9">
+        <v>0.87098033307233502</v>
+      </c>
+      <c r="E9">
+        <v>0.87232269713560395</v>
+      </c>
+      <c r="F9">
+        <v>0.87188563213052706</v>
+      </c>
+      <c r="G9">
+        <v>0.87233166574535903</v>
+      </c>
+      <c r="H9">
+        <v>0.87277474039125702</v>
+      </c>
+      <c r="I9">
+        <v>0.87410577620040297</v>
+      </c>
+      <c r="J9">
+        <v>0.87631891115689498</v>
+      </c>
+      <c r="K9">
+        <v>0.87631891115689498</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>0.87218391310611998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>0.19445723300458601</v>
+      </c>
+      <c r="C12">
+        <v>6.7053660435575799E-2</v>
+      </c>
+      <c r="D12">
+        <v>5.7369847900011102E-2</v>
+      </c>
+      <c r="E12">
+        <v>5.3816586903388197E-2</v>
+      </c>
+      <c r="F12">
+        <v>5.2603996909735003E-2</v>
+      </c>
+      <c r="G12">
+        <v>5.0698783615945001E-2</v>
+      </c>
+      <c r="H12">
+        <v>4.9768651219110997E-2</v>
+      </c>
+      <c r="I12">
+        <v>4.8088914072009797E-2</v>
+      </c>
+      <c r="J12">
+        <v>4.70048664006548E-2</v>
+      </c>
+      <c r="K12">
+        <v>4.5644538149132698E-2</v>
+      </c>
+      <c r="L12">
+        <f t="shared" ref="L12:L14" si="2">AVERAGE(B12:K12)</f>
+        <v>6.665070786101493E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>0.98144876325088304</v>
+      </c>
+      <c r="C13">
+        <v>0.98365724381625397</v>
+      </c>
+      <c r="D13">
+        <v>0.98454063604240205</v>
+      </c>
+      <c r="E13">
+        <v>0.98542402826855102</v>
+      </c>
+      <c r="F13">
+        <v>0.98586572438162501</v>
+      </c>
+      <c r="G13">
+        <v>0.98542402826855102</v>
+      </c>
+      <c r="H13">
+        <v>0.98542402826855102</v>
+      </c>
+      <c r="I13">
+        <v>0.98586572438162501</v>
+      </c>
+      <c r="J13">
+        <v>0.98586572438162501</v>
+      </c>
+      <c r="K13">
+        <v>0.98586572438162501</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>0.98493816254416944</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>0.864696438824894</v>
+      </c>
+      <c r="C14">
+        <v>0.86919415146326595</v>
+      </c>
+      <c r="D14">
+        <v>0.86876891523107502</v>
+      </c>
+      <c r="E14">
+        <v>0.86790129166503205</v>
+      </c>
+      <c r="F14">
+        <v>0.86967826406795901</v>
+      </c>
+      <c r="G14">
+        <v>0.87145075648708004</v>
+      </c>
+      <c r="H14">
+        <v>0.87277950648675595</v>
+      </c>
+      <c r="I14">
+        <v>0.87322428680271602</v>
+      </c>
+      <c r="J14">
+        <v>0.87543547480801598</v>
+      </c>
+      <c r="K14">
+        <v>0.87543693298214798</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>0.87085660188189418</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/result.xlsx
+++ b/result.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13650" windowHeight="7820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6600" windowHeight="2415" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Imdb" sheetId="2" r:id="rId2"/>
     <sheet name="ppt_movie" sheetId="3" r:id="rId3"/>
+    <sheet name="ReaderEmotion" sheetId="4" r:id="rId4"/>
+    <sheet name="new Chinese" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,50 +28,50 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="59">
   <si>
     <t>Model</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Train loss</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Train accuracy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Test f1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>BertLLR30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>BertLLR50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>BertLLR70</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>BertLLR100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>BertLLR150</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>BertLLR150</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Test f1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>BertLLR30</t>
@@ -139,6 +141,81 @@
   </si>
   <si>
     <t>LSTM</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>F1-score</t>
+  </si>
+  <si>
+    <t>Reader Emotion</t>
+  </si>
+  <si>
+    <t>Test accuracy</t>
+  </si>
+  <si>
+    <t>Models</t>
+  </si>
+  <si>
+    <t>Result acc scores</t>
+  </si>
+  <si>
+    <t>Bernoulli NB</t>
+  </si>
+  <si>
+    <t>Svm (linear)</t>
+  </si>
+  <si>
+    <t>Logistic Regression</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>kNN</t>
+  </si>
+  <si>
+    <t>Decision Tree</t>
+  </si>
+  <si>
+    <t>XG Boost</t>
+  </si>
+  <si>
+    <t>precisio</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>recall  f1-</t>
+  </si>
+  <si>
+    <t>score   su</t>
+  </si>
+  <si>
+    <t>pport</t>
+  </si>
+  <si>
+    <t>micro</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>macro</t>
+  </si>
+  <si>
+    <t>weighted</t>
+  </si>
+  <si>
+    <t>Multinominal NB</t>
+  </si>
+  <si>
+    <t>SVC</t>
+  </si>
+  <si>
+    <t>XGB</t>
   </si>
 </sst>
 </file>
@@ -148,13 +225,27 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -202,12 +293,186 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -216,28 +481,86 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -253,6 +576,87 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>29153</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>143230</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4143953" cy="2543530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>29153</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>124177</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="圖片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3000375"/>
+          <a:ext cx="4143953" cy="2524477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -518,20 +922,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P15" sqref="P15:P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="13.9140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="11.08203125" style="1" customWidth="1"/>
-    <col min="5" max="8" width="11.08203125" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="15.25" customWidth="1"/>
+    <col min="8" max="13" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -557,7 +963,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -590,7 +996,7 @@
         <v>1.5488236087765679E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -623,7 +1029,7 @@
         <v>0.99728799999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -656,89 +1062,596 @@
         <v>0.93556388993800754</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
+    <row r="13" spans="1:13" ht="16.5" thickBot="1"/>
+    <row r="14" spans="1:13">
+      <c r="G14" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="H14" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="I14" s="22"/>
+      <c r="J14" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="K14" s="22"/>
+      <c r="L14" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14" s="23"/>
+    </row>
+    <row r="15" spans="1:13" ht="16.5" thickBot="1">
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
+      <c r="G15" s="25"/>
+      <c r="H15" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>0.93579999999999997</v>
       </c>
       <c r="C16" s="1">
-        <v>0.85819999999999996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+        <v>0.87219999999999998</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="17">
+        <v>0.93483199999999989</v>
+      </c>
+      <c r="I16" s="17">
+        <v>0.93579999999999997</v>
+      </c>
+      <c r="J16" s="17">
+        <v>0.88175795053003481</v>
+      </c>
+      <c r="K16" s="17">
+        <v>0.88175590973845064</v>
+      </c>
+      <c r="L16" s="17">
+        <v>0.60956072351421164</v>
+      </c>
+      <c r="M16" s="21">
+        <v>0.59091650064035695</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="1">
         <v>0.9304</v>
       </c>
       <c r="C17" s="1">
+        <v>0.85819999999999996</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.59818278448066198</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0.93205000000000005</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0.9304</v>
+      </c>
+      <c r="J17" s="8">
+        <v>0.87378533568904582</v>
+      </c>
+      <c r="K17" s="8">
+        <v>0.87372747723313082</v>
+      </c>
+      <c r="L17" s="8">
+        <v>0.5769716885743168</v>
+      </c>
+      <c r="M17" s="20">
+        <v>0.54751409898219827</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.82895300000000005</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.79844999999999999</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.57833400000000001</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0.82955999999999996</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0.82895300000000005</v>
+      </c>
+      <c r="J18" s="8">
+        <v>0.80035299999999998</v>
+      </c>
+      <c r="K18" s="8">
+        <v>0.79844999999999999</v>
+      </c>
+      <c r="L18" s="8">
+        <v>0.56451499999999999</v>
+      </c>
+      <c r="M18" s="10">
+        <v>0.57833400000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.882552</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.87808900000000001</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.57702900000000001</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="8">
+        <v>0.88256000000000001</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0.882552</v>
+      </c>
+      <c r="J19" s="8">
+        <v>0.87809199999999998</v>
+      </c>
+      <c r="K19" s="15">
+        <v>0.87808900000000001</v>
+      </c>
+      <c r="L19" s="8">
+        <v>0.49491600000000002</v>
+      </c>
+      <c r="M19" s="10">
+        <v>0.57702900000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.88315999999999995</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.84401999999999999</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.50000599999999995</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0.88315999999999995</v>
+      </c>
+      <c r="I20" s="8">
+        <v>0.88315999999999995</v>
+      </c>
+      <c r="J20" s="8">
+        <v>0.84408099999999997</v>
+      </c>
+      <c r="K20" s="8">
+        <v>0.84401999999999999</v>
+      </c>
+      <c r="L20" s="8">
+        <v>0.51488599999999995</v>
+      </c>
+      <c r="M20" s="10">
+        <v>0.50000599999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.72741699999999998</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.74291700000000005</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.53044999999999998</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="8">
+        <v>0.72951999999999995</v>
+      </c>
+      <c r="I21" s="8">
+        <v>0.72741699999999998</v>
+      </c>
+      <c r="J21" s="8">
+        <v>0.74293299999999995</v>
+      </c>
+      <c r="K21" s="8">
+        <v>0.74291700000000005</v>
+      </c>
+      <c r="L21" s="8">
+        <v>0.49626399999999998</v>
+      </c>
+      <c r="M21" s="10">
+        <v>0.53044999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.66029099999999996</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.70636699999999997</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.33397199999999999</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="8">
+        <v>0.66152</v>
+      </c>
+      <c r="I22" s="8">
+        <v>0.66029099999999996</v>
+      </c>
+      <c r="J22" s="8">
+        <v>0.70980600000000005</v>
+      </c>
+      <c r="K22" s="8">
+        <v>0.70636699999999997</v>
+      </c>
+      <c r="L22" s="8">
+        <v>0.371672</v>
+      </c>
+      <c r="M22" s="10">
+        <v>0.33397199999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.70367000000000002</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.70006299999999999</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.45771899999999999</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="8">
+        <v>0.70367999999999997</v>
+      </c>
+      <c r="I23" s="8">
+        <v>0.70367000000000002</v>
+      </c>
+      <c r="J23" s="8">
+        <v>0.70008800000000004</v>
+      </c>
+      <c r="K23" s="8">
+        <v>0.70006299999999999</v>
+      </c>
+      <c r="L23" s="8">
+        <v>0.41068399999999999</v>
+      </c>
+      <c r="M23" s="10">
+        <v>0.45771899999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.80977299999999997</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.81977100000000003</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.26389299999999999</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="8">
+        <v>0.81035999999999997</v>
+      </c>
+      <c r="I24" s="8">
+        <v>0.80977299999999997</v>
+      </c>
+      <c r="J24" s="8">
+        <v>0.81978799999999996</v>
+      </c>
+      <c r="K24" s="8">
+        <v>0.81977100000000003</v>
+      </c>
+      <c r="L24" s="8">
+        <v>0.418296</v>
+      </c>
+      <c r="M24" s="10">
+        <v>0.26389299999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.82090781777741095</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.42404371584699402</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.53765784252360305</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="8">
+        <v>0.82608000000000004</v>
+      </c>
+      <c r="I25" s="8">
+        <v>0.82090781777741095</v>
+      </c>
+      <c r="J25" s="8">
+        <v>0.53445229681978801</v>
+      </c>
+      <c r="K25" s="8">
+        <v>0.42404371584699402</v>
+      </c>
+      <c r="L25" s="8">
+        <v>0.457589034939894</v>
+      </c>
+      <c r="M25" s="10">
+        <v>0.53765784252360305</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="16.5" thickBot="1">
+      <c r="A26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.85298856130175604</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.78344226579520604</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.448961770558716</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" s="12">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="I26" s="12">
+        <v>0.85298856130175604</v>
+      </c>
+      <c r="J26" s="12">
+        <v>0.78047703180212002</v>
+      </c>
+      <c r="K26" s="12">
+        <v>0.78344226579520604</v>
+      </c>
+      <c r="L26" s="12">
+        <v>0.43450174137737302</v>
+      </c>
+      <c r="M26" s="14">
+        <v>0.448961770558716</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.93579999999999997</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.9304</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.82895300000000005</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.882552</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.88315999999999995</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.72741699999999998</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.66029099999999996</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.70367000000000002</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0.80977299999999997</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0.82090781777741095</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0.85298856130175604</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="1">
         <v>0.87219999999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>33</v>
+      <c r="C34" s="1">
+        <v>0.85819999999999996</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.79844999999999999</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.87808900000000001</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.84401999999999999</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.74291700000000005</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.70636699999999997</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0.70006299999999999</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0.81977100000000003</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0.42404371584699402</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0.78344226579520604</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.59818278448066198</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.57833400000000001</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.57702900000000001</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.50000599999999995</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.53044999999999998</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.33397199999999999</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.45771899999999999</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0.26389299999999999</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0.53765784252360305</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0.448961770558716</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <mergeCells count="4">
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="G14:G15"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -746,13 +1659,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -1050,7 +1963,7 @@
         <v>1.28932824442955E-2</v>
       </c>
       <c r="L12">
-        <f t="shared" ref="L12:L14" si="2">AVERAGE(B12:K12)</f>
+        <f t="shared" ref="L12:L15" si="2">AVERAGE(B12:K12)</f>
         <v>1.6585451497154659E-2</v>
       </c>
     </row>
@@ -1127,9 +2040,45 @@
       <c r="K14">
         <v>0.93567998518066797</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="3">
         <f t="shared" si="2"/>
         <v>0.93577194120348506</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="B15">
+        <v>0.93388000000000004</v>
+      </c>
+      <c r="C15">
+        <v>0.93423999999999996</v>
+      </c>
+      <c r="D15">
+        <v>0.93440000000000001</v>
+      </c>
+      <c r="E15">
+        <v>0.93484</v>
+      </c>
+      <c r="F15">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="G15">
+        <v>0.93520000000000003</v>
+      </c>
+      <c r="H15">
+        <v>0.93520000000000003</v>
+      </c>
+      <c r="I15">
+        <v>0.93515999999999999</v>
+      </c>
+      <c r="J15">
+        <v>0.93528</v>
+      </c>
+      <c r="K15">
+        <v>0.93511999999999995</v>
+      </c>
+      <c r="L15" s="19">
+        <f t="shared" si="2"/>
+        <v>0.93483199999999989</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1632,8 +2581,80 @@
         <v>0.93556388993800754</v>
       </c>
     </row>
+    <row r="37" spans="1:12">
+      <c r="B37">
+        <v>0.27722062562847699</v>
+      </c>
+      <c r="C37">
+        <v>0.12728268483699801</v>
+      </c>
+      <c r="D37">
+        <v>6.8181830318194803E-2</v>
+      </c>
+      <c r="E37">
+        <v>4.7799739734012803E-2</v>
+      </c>
+      <c r="F37">
+        <f>AVERAGE(B37:E37)</f>
+        <v>0.13012122012942065</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="B38">
+        <v>0.96228000000000002</v>
+      </c>
+      <c r="C38">
+        <v>0.98307999999999995</v>
+      </c>
+      <c r="D38">
+        <v>0.98887999999999998</v>
+      </c>
+      <c r="E38">
+        <v>0.99587999999999999</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ref="F38:F40" si="7">AVERAGE(B38:E38)</f>
+        <v>0.98253000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="B39">
+        <v>0.93291990973702998</v>
+      </c>
+      <c r="C39">
+        <v>0.93065783169710903</v>
+      </c>
+      <c r="D39">
+        <v>0.93094192215653304</v>
+      </c>
+      <c r="E39">
+        <v>0.93359640294370805</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="7"/>
+        <v>0.93202901663359494</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="B40">
+        <v>0.93291999999999997</v>
+      </c>
+      <c r="C40">
+        <v>0.93067999999999995</v>
+      </c>
+      <c r="D40">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="E40">
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="7"/>
+        <v>0.93205000000000005</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -1641,13 +2662,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="16.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -1704,271 +2728,1040 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.861057602101444</v>
+        <v>0.85772944144684204</v>
       </c>
       <c r="C4">
-        <v>0.83551384156140496</v>
+        <v>0.87976257419556303</v>
       </c>
       <c r="D4">
-        <v>0.86724241862734197</v>
+        <v>0.87712783942938399</v>
       </c>
       <c r="E4" s="3">
-        <v>0.858245617330475</v>
+        <v>0.880290053860734</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>0.85551486990516645</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" t="s">
-        <v>14</v>
+        <v>0.87372747723313082</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <v>0.857773851590106</v>
+      </c>
+      <c r="C5">
+        <v>0.87985865724381596</v>
+      </c>
+      <c r="D5">
+        <v>0.87720848056537104</v>
+      </c>
+      <c r="E5">
+        <v>0.88030035335689005</v>
+      </c>
+      <c r="F5">
+        <f>AVERAGE(B5:E5)</f>
+        <v>0.87378533568904582</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>0.20142832579432199</v>
-      </c>
-      <c r="C7">
-        <v>6.7242828892989895E-2</v>
-      </c>
-      <c r="D7">
-        <v>5.8380490011522401E-2</v>
-      </c>
-      <c r="E7">
-        <v>5.39824414709714E-2</v>
-      </c>
-      <c r="F7">
-        <v>5.2804516090578499E-2</v>
-      </c>
-      <c r="G7">
-        <v>5.1347154258212499E-2</v>
-      </c>
-      <c r="H7">
-        <v>4.9809464620767303E-2</v>
-      </c>
-      <c r="I7">
-        <v>4.8746730738752297E-2</v>
-      </c>
-      <c r="J7">
-        <v>4.7042811748532302E-2</v>
-      </c>
-      <c r="K7">
-        <v>4.6127993088792701E-2</v>
-      </c>
-      <c r="L7">
-        <f>AVERAGE(B7:K7)</f>
-        <v>6.7691275671544135E-2</v>
+        <v>13</v>
+      </c>
+      <c r="L7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>0.98321554770317998</v>
+        <v>0.19445723300458601</v>
       </c>
       <c r="C8">
-        <v>0.98365724381625397</v>
+        <v>6.7053660435575799E-2</v>
       </c>
       <c r="D8">
-        <v>0.98454063604240205</v>
+        <v>5.7369847900011102E-2</v>
       </c>
       <c r="E8">
-        <v>0.98454063604240205</v>
+        <v>5.3816586903388197E-2</v>
       </c>
       <c r="F8">
-        <v>0.98454063604240205</v>
+        <v>5.2603996909735003E-2</v>
       </c>
       <c r="G8">
-        <v>0.98498233215547704</v>
+        <v>5.0698783615945001E-2</v>
       </c>
       <c r="H8">
-        <v>0.98542402826855102</v>
+        <v>4.9768651219110997E-2</v>
       </c>
       <c r="I8">
-        <v>0.98586572438162501</v>
+        <v>4.8088914072009797E-2</v>
       </c>
       <c r="J8">
-        <v>0.98630742049469899</v>
+        <v>4.70048664006548E-2</v>
       </c>
       <c r="K8">
-        <v>0.98586572438162501</v>
+        <v>4.5644538149132698E-2</v>
       </c>
       <c r="L8">
-        <f t="shared" ref="L8:L9" si="1">AVERAGE(B8:K8)</f>
-        <v>0.98489399293286173</v>
+        <f t="shared" ref="L8:L11" si="1">AVERAGE(B8:K8)</f>
+        <v>6.665070786101493E-2</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9">
-        <v>0.86427322354218505</v>
+        <v>0.98144876325088304</v>
       </c>
       <c r="C9">
-        <v>0.87052724052973995</v>
+        <v>0.98365724381625397</v>
       </c>
       <c r="D9">
-        <v>0.87098033307233502</v>
+        <v>0.98454063604240205</v>
       </c>
       <c r="E9">
-        <v>0.87232269713560395</v>
+        <v>0.98542402826855102</v>
       </c>
       <c r="F9">
-        <v>0.87188563213052706</v>
+        <v>0.98586572438162501</v>
       </c>
       <c r="G9">
-        <v>0.87233166574535903</v>
+        <v>0.98542402826855102</v>
       </c>
       <c r="H9">
-        <v>0.87277474039125702</v>
+        <v>0.98542402826855102</v>
       </c>
       <c r="I9">
-        <v>0.87410577620040297</v>
+        <v>0.98586572438162501</v>
       </c>
       <c r="J9">
-        <v>0.87631891115689498</v>
+        <v>0.98586572438162501</v>
       </c>
       <c r="K9">
-        <v>0.87631891115689498</v>
+        <v>0.98586572438162501</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>0.87218391310611998</v>
+        <v>0.98493816254416944</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>0.87808844783937401</v>
+      </c>
+      <c r="C10">
+        <v>0.87808949437294703</v>
+      </c>
+      <c r="D10">
+        <v>0.880297527594464</v>
+      </c>
+      <c r="E10">
+        <v>0.881178529739023</v>
+      </c>
+      <c r="F10">
+        <v>0.88206435375543202</v>
+      </c>
+      <c r="G10">
+        <v>0.88250736689641296</v>
+      </c>
+      <c r="H10">
+        <v>0.88339140715537101</v>
+      </c>
+      <c r="I10">
+        <v>0.88339186215292398</v>
+      </c>
+      <c r="J10">
+        <v>0.88383335567187205</v>
+      </c>
+      <c r="K10">
+        <v>0.884716752206686</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>0.88175590973845064</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>0.19445723300458601</v>
-      </c>
-      <c r="C12">
-        <v>6.7053660435575799E-2</v>
-      </c>
-      <c r="D12">
-        <v>5.7369847900011102E-2</v>
-      </c>
-      <c r="E12">
-        <v>5.3816586903388197E-2</v>
-      </c>
-      <c r="F12">
-        <v>5.2603996909735003E-2</v>
-      </c>
-      <c r="G12">
-        <v>5.0698783615945001E-2</v>
-      </c>
-      <c r="H12">
-        <v>4.9768651219110997E-2</v>
-      </c>
-      <c r="I12">
-        <v>4.8088914072009797E-2</v>
-      </c>
-      <c r="J12">
-        <v>4.70048664006548E-2</v>
-      </c>
-      <c r="K12">
-        <v>4.5644538149132698E-2</v>
-      </c>
-      <c r="L12">
-        <f t="shared" ref="L12:L14" si="2">AVERAGE(B12:K12)</f>
-        <v>6.665070786101493E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>0.98144876325088304</v>
-      </c>
-      <c r="C13">
-        <v>0.98365724381625397</v>
-      </c>
-      <c r="D13">
-        <v>0.98454063604240205</v>
-      </c>
-      <c r="E13">
-        <v>0.98542402826855102</v>
-      </c>
-      <c r="F13">
-        <v>0.98586572438162501</v>
-      </c>
-      <c r="G13">
-        <v>0.98542402826855102</v>
-      </c>
-      <c r="H13">
-        <v>0.98542402826855102</v>
-      </c>
-      <c r="I13">
-        <v>0.98586572438162501</v>
-      </c>
-      <c r="J13">
-        <v>0.98586572438162501</v>
-      </c>
-      <c r="K13">
-        <v>0.98586572438162501</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="2"/>
-        <v>0.98493816254416944</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14">
-        <v>0.864696438824894</v>
-      </c>
-      <c r="C14">
-        <v>0.86919415146326595</v>
-      </c>
-      <c r="D14">
-        <v>0.86876891523107502</v>
-      </c>
-      <c r="E14">
-        <v>0.86790129166503205</v>
-      </c>
-      <c r="F14">
-        <v>0.86967826406795901</v>
-      </c>
-      <c r="G14">
-        <v>0.87145075648708004</v>
-      </c>
-      <c r="H14">
-        <v>0.87277950648675595</v>
-      </c>
-      <c r="I14">
-        <v>0.87322428680271602</v>
-      </c>
-      <c r="J14">
-        <v>0.87543547480801598</v>
-      </c>
-      <c r="K14">
-        <v>0.87543693298214798</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="2"/>
-        <v>0.87085660188189418</v>
+        <v>37</v>
+      </c>
+      <c r="B11">
+        <v>0.87809187279151901</v>
+      </c>
+      <c r="C11">
+        <v>0.87809187279151901</v>
+      </c>
+      <c r="D11">
+        <v>0.88030035335689005</v>
+      </c>
+      <c r="E11">
+        <v>0.88118374558303803</v>
+      </c>
+      <c r="F11">
+        <v>0.882067137809187</v>
+      </c>
+      <c r="G11">
+        <v>0.88250883392226098</v>
+      </c>
+      <c r="H11">
+        <v>0.88339222614840895</v>
+      </c>
+      <c r="I11">
+        <v>0.88339222614840895</v>
+      </c>
+      <c r="J11">
+        <v>0.88383392226148405</v>
+      </c>
+      <c r="K11">
+        <v>0.88471731448763202</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>0.88175795053003481</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="16.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1.2187915980923001</v>
+      </c>
+      <c r="C2">
+        <v>0.85097805911795699</v>
+      </c>
+      <c r="D2">
+        <v>0.59090359480659105</v>
+      </c>
+      <c r="E2">
+        <v>0.369758619884754</v>
+      </c>
+      <c r="F2">
+        <f>AVERAGE(B2:E2)</f>
+        <v>0.75760796797540042</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.71913289349670095</v>
+      </c>
+      <c r="C3">
+        <v>0.81415474252420506</v>
+      </c>
+      <c r="D3">
+        <v>0.88886984834204397</v>
+      </c>
+      <c r="E3">
+        <v>0.92588467140776198</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F5" si="0">AVERAGE(B3:E3)</f>
+        <v>0.83701053894267807</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.52687269887252697</v>
+      </c>
+      <c r="C4">
+        <v>0.53565868075032097</v>
+      </c>
+      <c r="D4">
+        <v>0.54182555584209002</v>
+      </c>
+      <c r="E4">
+        <v>0.58569946046385502</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0.54751409898219827</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <v>0.58563644534321901</v>
+      </c>
+      <c r="C5">
+        <v>0.55886978991124503</v>
+      </c>
+      <c r="D5">
+        <v>0.56454330974047795</v>
+      </c>
+      <c r="E5">
+        <v>0.59883720930232498</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0.5769716885743168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0.69372806645011198</v>
+      </c>
+      <c r="C8">
+        <v>0.25445178279219399</v>
+      </c>
+      <c r="D8">
+        <v>0.20929750265323899</v>
+      </c>
+      <c r="E8">
+        <v>0.18987491633743001</v>
+      </c>
+      <c r="F8">
+        <v>0.178340025567641</v>
+      </c>
+      <c r="G8">
+        <v>0.16786908503519701</v>
+      </c>
+      <c r="H8">
+        <v>0.15861354803743</v>
+      </c>
+      <c r="I8">
+        <v>0.15155977973433701</v>
+      </c>
+      <c r="J8">
+        <v>0.144758358350253</v>
+      </c>
+      <c r="K8">
+        <v>0.13873136660517801</v>
+      </c>
+      <c r="L8">
+        <f>AVERAGE(B8:K8)</f>
+        <v>0.22872244315630108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>0.930168794447776</v>
+      </c>
+      <c r="C9">
+        <v>0.93702339131179802</v>
+      </c>
+      <c r="D9">
+        <v>0.94225002142061498</v>
+      </c>
+      <c r="E9">
+        <v>0.94576300231342603</v>
+      </c>
+      <c r="F9">
+        <v>0.94910461828463699</v>
+      </c>
+      <c r="G9">
+        <v>0.95150372718704401</v>
+      </c>
+      <c r="H9">
+        <v>0.95433124839345296</v>
+      </c>
+      <c r="I9">
+        <v>0.95715876959986201</v>
+      </c>
+      <c r="J9">
+        <v>0.95895810127666803</v>
+      </c>
+      <c r="K9">
+        <v>0.96015765572787204</v>
+      </c>
+      <c r="L9">
+        <f t="shared" ref="L9:L13" si="1">AVERAGE(B9:K9)</f>
+        <v>0.94864193299631516</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>0.61424727153314596</v>
+      </c>
+      <c r="C10">
+        <v>0.59849940027866699</v>
+      </c>
+      <c r="D10">
+        <v>0.59285692534363998</v>
+      </c>
+      <c r="E10">
+        <v>0.58952615097424399</v>
+      </c>
+      <c r="F10">
+        <v>0.58783578328653696</v>
+      </c>
+      <c r="G10">
+        <v>0.58672534032044599</v>
+      </c>
+      <c r="H10">
+        <v>0.58568693285362805</v>
+      </c>
+      <c r="I10">
+        <v>0.58506259410371197</v>
+      </c>
+      <c r="J10">
+        <v>0.58440261006366301</v>
+      </c>
+      <c r="K10">
+        <v>0.58432199764588699</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>0.59091650064035695</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11">
+        <v>0.62259858442871496</v>
+      </c>
+      <c r="C11">
+        <v>0.61622289630378602</v>
+      </c>
+      <c r="D11">
+        <v>0.61276822828895605</v>
+      </c>
+      <c r="E11">
+        <v>0.60965060105606095</v>
+      </c>
+      <c r="F11">
+        <v>0.60793731041456001</v>
+      </c>
+      <c r="G11">
+        <v>0.60656106055499304</v>
+      </c>
+      <c r="H11">
+        <v>0.60594315245478003</v>
+      </c>
+      <c r="I11">
+        <v>0.60507246376811596</v>
+      </c>
+      <c r="J11">
+        <v>0.60451072913155801</v>
+      </c>
+      <c r="K11">
+        <v>0.60434220874059097</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>0.60956072351421164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="B13">
+        <v>0.60100298889713899</v>
+      </c>
+      <c r="C13">
+        <v>0.59007775308630805</v>
+      </c>
+      <c r="D13">
+        <v>0.58512355177989095</v>
+      </c>
+      <c r="E13">
+        <v>0.58377851038841</v>
+      </c>
+      <c r="F13">
+        <v>0.58339058515896702</v>
+      </c>
+      <c r="G13">
+        <v>0.58274128810512105</v>
+      </c>
+      <c r="H13">
+        <v>0.58281360814606098</v>
+      </c>
+      <c r="I13">
+        <v>0.58190872603510702</v>
+      </c>
+      <c r="J13">
+        <v>0.58138632974861104</v>
+      </c>
+      <c r="K13">
+        <v>0.58136705646001996</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>0.58535903978056347</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:T41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="11" max="11" width="16.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="11:13">
+      <c r="K2" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="11:13">
+      <c r="K3" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="26">
+        <v>0.49367445195656601</v>
+      </c>
+      <c r="M3" s="26">
+        <v>0.43498007726926502</v>
+      </c>
+    </row>
+    <row r="4" spans="11:13">
+      <c r="K4" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="26">
+        <v>0.640941917639827</v>
+      </c>
+      <c r="M4" s="26">
+        <v>0.61281522120580401</v>
+      </c>
+    </row>
+    <row r="5" spans="11:13">
+      <c r="K5" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="26">
+        <v>0.544189203032165</v>
+      </c>
+      <c r="M5" s="26">
+        <v>0.51732072597034895</v>
+      </c>
+    </row>
+    <row r="6" spans="11:13">
+      <c r="K6" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="26">
+        <v>0.514635832821143</v>
+      </c>
+      <c r="M6" s="26">
+        <v>0.489608064542154</v>
+      </c>
+    </row>
+    <row r="7" spans="11:13">
+      <c r="K7" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="26">
+        <v>0.48037031346035602</v>
+      </c>
+      <c r="M7" s="26">
+        <v>0.44171231536794398</v>
+      </c>
+    </row>
+    <row r="8" spans="11:13">
+      <c r="K8" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="26">
+        <v>0.56804445810284698</v>
+      </c>
+      <c r="M8" s="26">
+        <v>0.52162428733659205</v>
+      </c>
+    </row>
+    <row r="9" spans="11:13">
+      <c r="K9" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="26">
+        <v>0.422351977053882</v>
+      </c>
+      <c r="M9" s="26">
+        <v>0.381185756465723</v>
+      </c>
+    </row>
+    <row r="10" spans="11:13">
+      <c r="K10" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="26">
+        <v>0.32745595164925201</v>
+      </c>
+      <c r="M10" s="26">
+        <v>0.33225283410401901</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="M17" t="s">
+        <v>56</v>
+      </c>
+      <c r="N17" t="s">
+        <v>57</v>
+      </c>
+      <c r="O17" t="s">
+        <v>27</v>
+      </c>
+      <c r="P17" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>29</v>
+      </c>
+      <c r="R17" t="s">
+        <v>30</v>
+      </c>
+      <c r="S17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="M18">
+        <v>0.84130000000000005</v>
+      </c>
+      <c r="N18">
+        <v>0.79590000000000005</v>
+      </c>
+      <c r="O18">
+        <v>0.74170000000000003</v>
+      </c>
+      <c r="P18">
+        <v>0.70430000000000004</v>
+      </c>
+      <c r="Q18">
+        <v>0.76090000000000002</v>
+      </c>
+      <c r="R18">
+        <v>0.60129999999999995</v>
+      </c>
+      <c r="S18">
+        <v>0.48270000000000002</v>
+      </c>
+      <c r="T18">
+        <v>18919</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="M19">
+        <v>0.71840000000000004</v>
+      </c>
+      <c r="N19">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="O19">
+        <v>0.63219999999999998</v>
+      </c>
+      <c r="P19">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="Q19">
+        <v>0.50239999999999996</v>
+      </c>
+      <c r="R19">
+        <v>0.4425</v>
+      </c>
+      <c r="S19">
+        <v>0.45040000000000002</v>
+      </c>
+      <c r="T19">
+        <v>5844</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="M20">
+        <v>0.72150000000000003</v>
+      </c>
+      <c r="N20">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="O20">
+        <v>0.64080000000000004</v>
+      </c>
+      <c r="P20">
+        <v>0.51339999999999997</v>
+      </c>
+      <c r="Q20">
+        <v>0.66210000000000002</v>
+      </c>
+      <c r="R20">
+        <v>0.48959999999999998</v>
+      </c>
+      <c r="S20">
+        <v>0.49740000000000001</v>
+      </c>
+      <c r="T20">
+        <v>19023</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="M21">
+        <v>0.48080000000000001</v>
+      </c>
+      <c r="N21">
+        <v>0.2266</v>
+      </c>
+      <c r="O21">
+        <v>0.22140000000000001</v>
+      </c>
+      <c r="P21">
+        <v>0.2228</v>
+      </c>
+      <c r="Q21">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="R21">
+        <v>0.14580000000000001</v>
+      </c>
+      <c r="S21">
+        <v>0.1565</v>
+      </c>
+      <c r="T21">
+        <v>12256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="M22">
+        <v>0.55920000000000003</v>
+      </c>
+      <c r="N22">
+        <v>0.49509999999999998</v>
+      </c>
+      <c r="O22">
+        <v>0.45450000000000002</v>
+      </c>
+      <c r="P22">
+        <v>0.37390000000000001</v>
+      </c>
+      <c r="Q22">
+        <v>0.50349999999999995</v>
+      </c>
+      <c r="R22">
+        <v>0.37569999999999998</v>
+      </c>
+      <c r="S22">
+        <v>0.24629999999999999</v>
+      </c>
+      <c r="T22">
+        <v>17031</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="M23">
+        <v>0.35560000000000003</v>
+      </c>
+      <c r="N23">
+        <v>0.25929999999999997</v>
+      </c>
+      <c r="O23">
+        <v>0.24709999999999999</v>
+      </c>
+      <c r="P23">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="Q23">
+        <v>0.31680000000000003</v>
+      </c>
+      <c r="R23">
+        <v>0.23219999999999999</v>
+      </c>
+      <c r="S23">
+        <v>0.1603</v>
+      </c>
+      <c r="T23">
+        <v>5023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="M25">
+        <v>0.61280000000000001</v>
+      </c>
+      <c r="N25">
+        <v>0.51729999999999998</v>
+      </c>
+      <c r="O25">
+        <v>0.48959999999999998</v>
+      </c>
+      <c r="P25">
+        <v>0.44169999999999998</v>
+      </c>
+      <c r="Q25">
+        <v>0.52159999999999995</v>
+      </c>
+      <c r="R25">
+        <v>0.38119999999999998</v>
+      </c>
+      <c r="S25">
+        <v>0.33229999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="M26">
+        <v>0.65359999999999996</v>
+      </c>
+      <c r="N26">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="O26">
+        <v>0.53280000000000005</v>
+      </c>
+      <c r="P26">
+        <v>0.47189999999999999</v>
+      </c>
+      <c r="Q26">
+        <v>0.57369999999999999</v>
+      </c>
+      <c r="R26">
+        <v>0.4178</v>
+      </c>
+      <c r="S26">
+        <v>0.3604</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0.2989</v>
+      </c>
+      <c r="D32">
+        <v>0.87939999999999996</v>
+      </c>
+      <c r="E32">
+        <v>0.4461</v>
+      </c>
+      <c r="F32">
+        <v>5023</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>0.71950000000000003</v>
+      </c>
+      <c r="D33">
+        <v>0.97640000000000005</v>
+      </c>
+      <c r="E33">
+        <v>0.82850000000000001</v>
+      </c>
+      <c r="F33">
+        <v>5844</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>0.80410000000000004</v>
+      </c>
+      <c r="D34">
+        <v>0.8508</v>
+      </c>
+      <c r="E34">
+        <v>0.82679999999999998</v>
+      </c>
+      <c r="F34">
+        <v>19023</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="D35">
+        <v>0.88019999999999998</v>
+      </c>
+      <c r="E35">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="F35">
+        <v>18919</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>0.87739999999999996</v>
+      </c>
+      <c r="D36">
+        <v>0.62470000000000003</v>
+      </c>
+      <c r="E36">
+        <v>0.7298</v>
+      </c>
+      <c r="F36">
+        <v>17031</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>0.90190000000000003</v>
+      </c>
+      <c r="D37">
+        <v>0.3805</v>
+      </c>
+      <c r="E37">
+        <v>0.53520000000000001</v>
+      </c>
+      <c r="F37">
+        <v>12256</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39">
+        <v>0.746</v>
+      </c>
+      <c r="D39">
+        <v>0.746</v>
+      </c>
+      <c r="E39">
+        <v>0.746</v>
+      </c>
+      <c r="F39">
+        <v>78096</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40">
+        <v>0.75480000000000003</v>
+      </c>
+      <c r="D40">
+        <v>0.76529999999999998</v>
+      </c>
+      <c r="E40">
+        <v>0.71160000000000001</v>
+      </c>
+      <c r="F40">
+        <v>78096</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41">
+        <v>0.82640000000000002</v>
+      </c>
+      <c r="D41">
+        <v>0.746</v>
+      </c>
+      <c r="E41">
+        <v>0.754</v>
+      </c>
+      <c r="F41">
+        <v>78096</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/result.xlsx
+++ b/result.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6600" windowHeight="2415" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6600" windowHeight="2420"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="ppt_movie" sheetId="3" r:id="rId3"/>
     <sheet name="ReaderEmotion" sheetId="4" r:id="rId4"/>
     <sheet name="new Chinese" sheetId="5" r:id="rId5"/>
+    <sheet name="AICup" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="98">
   <si>
     <t>Model</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -216,6 +217,123 @@
   </si>
   <si>
     <t>XGB</t>
+  </si>
+  <si>
+    <t>DF2BERT</t>
+  </si>
+  <si>
+    <t>BERT</t>
+  </si>
+  <si>
+    <t>MNB</t>
+  </si>
+  <si>
+    <t>Entities</t>
+  </si>
+  <si>
+    <t>precision</t>
+  </si>
+  <si>
+    <t>recall</t>
+  </si>
+  <si>
+    <t>f1-score</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>Politics</t>
+  </si>
+  <si>
+    <t>Sports</t>
+  </si>
+  <si>
+    <t>Tech</t>
+  </si>
+  <si>
+    <t>Travel</t>
+  </si>
+  <si>
+    <t>CNN</t>
+  </si>
+  <si>
+    <t>samples</t>
+  </si>
+  <si>
+    <t>EMPIRICAL</t>
+  </si>
+  <si>
+    <t>ENGINEERING</t>
+  </si>
+  <si>
+    <t>THEORICAL</t>
+  </si>
+  <si>
+    <t>OTHERS</t>
+  </si>
+  <si>
+    <t>====  SV</t>
+  </si>
+  <si>
+    <t>C  =</t>
+  </si>
+  <si>
+    <t>===</t>
+  </si>
+  <si>
+    <t>====  Lo</t>
+  </si>
+  <si>
+    <t>gist</t>
+  </si>
+  <si>
+    <t>icRegression  =</t>
+  </si>
+  <si>
+    <t>====  Ra</t>
+  </si>
+  <si>
+    <t>ndom</t>
+  </si>
+  <si>
+    <t>ForestClassifie</t>
+  </si>
+  <si>
+    <t>r  ====</t>
+  </si>
+  <si>
+    <t>====  KN</t>
+  </si>
+  <si>
+    <t>eigh</t>
+  </si>
+  <si>
+    <t>borsClassifier</t>
+  </si>
+  <si>
+    <t>====</t>
+  </si>
+  <si>
+    <t>====  De</t>
+  </si>
+  <si>
+    <t>cisi</t>
+  </si>
+  <si>
+    <t>onTreeClassifie</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -225,7 +343,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -278,8 +396,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,6 +427,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,7 +625,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -560,7 +704,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -924,17 +1095,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P15" sqref="P15:P16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="11.125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="11.125" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.08203125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="11.08203125" customWidth="1"/>
     <col min="7" max="7" width="15.25" customWidth="1"/>
-    <col min="8" max="13" width="9.125" customWidth="1"/>
+    <col min="8" max="13" width="9.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1062,7 +1233,7 @@
         <v>0.93556388993800754</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="16.5" thickBot="1"/>
+    <row r="13" spans="1:13" ht="16" thickBot="1"/>
     <row r="14" spans="1:13">
       <c r="G14" s="24" t="s">
         <v>19</v>
@@ -1080,7 +1251,7 @@
       </c>
       <c r="M14" s="23"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" thickBot="1">
+    <row r="15" spans="1:13" ht="16" thickBot="1">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
@@ -1460,7 +1631,7 @@
         <v>0.53765784252360305</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="16.5" thickBot="1">
+    <row r="26" spans="1:13" ht="16" thickBot="1">
       <c r="A26" s="7" t="s">
         <v>33</v>
       </c>
@@ -1665,7 +1836,7 @@
       <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -2668,7 +2839,7 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="16.25" bestFit="1" customWidth="1"/>
   </cols>
@@ -2943,7 +3114,7 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="16.25" bestFit="1" customWidth="1"/>
   </cols>
@@ -3248,18 +3419,55 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:T41"/>
+  <dimension ref="A1:AD56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="V44" sqref="V44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
-    <col min="11" max="11" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="10" width="8.6640625" style="27"/>
+    <col min="11" max="11" width="9.83203125" style="27" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" style="27" customWidth="1"/>
+    <col min="13" max="13" width="9.58203125" style="27" customWidth="1"/>
+    <col min="14" max="21" width="8.33203125" style="27" customWidth="1"/>
+    <col min="22" max="16384" width="8.6640625" style="27"/>
   </cols>
   <sheetData>
-    <row r="2" spans="11:13">
+    <row r="1" spans="11:30">
+      <c r="P1" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="R1" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="S1" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="T1" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="U1" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="X1" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z1" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA1" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB1" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC1" s="27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="11:30">
       <c r="K2" s="26" t="s">
         <v>38</v>
       </c>
@@ -3267,7 +3475,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="11:13">
+    <row r="3" spans="11:30">
       <c r="K3" s="26" t="s">
         <v>40</v>
       </c>
@@ -3277,8 +3485,44 @@
       <c r="M3" s="26">
         <v>0.43498007726926502</v>
       </c>
-    </row>
-    <row r="4" spans="11:13">
+      <c r="Q3" s="27">
+        <v>0</v>
+      </c>
+      <c r="R3" s="27">
+        <v>0.70660000000000001</v>
+      </c>
+      <c r="S3" s="27">
+        <v>0.14369999999999999</v>
+      </c>
+      <c r="T3" s="27">
+        <v>0.2389</v>
+      </c>
+      <c r="U3" s="27">
+        <v>18919</v>
+      </c>
+      <c r="V3" s="27">
+        <v>0.33889999999999998</v>
+      </c>
+      <c r="Y3" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="27">
+        <v>0.6694</v>
+      </c>
+      <c r="AA3" s="27">
+        <v>0.2424</v>
+      </c>
+      <c r="AB3" s="27">
+        <v>0.35589999999999999</v>
+      </c>
+      <c r="AC3" s="27">
+        <v>18919</v>
+      </c>
+      <c r="AD3" s="27">
+        <v>0.35589999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="11:30">
       <c r="K4" s="26" t="s">
         <v>25</v>
       </c>
@@ -3288,8 +3532,44 @@
       <c r="M4" s="26">
         <v>0.61281522120580401</v>
       </c>
-    </row>
-    <row r="5" spans="11:13">
+      <c r="Q4" s="27">
+        <v>1</v>
+      </c>
+      <c r="R4" s="27">
+        <v>0.3175</v>
+      </c>
+      <c r="S4" s="27">
+        <v>0.12820000000000001</v>
+      </c>
+      <c r="T4" s="27">
+        <v>0.18260000000000001</v>
+      </c>
+      <c r="U4" s="27">
+        <v>5844</v>
+      </c>
+      <c r="V4" s="27">
+        <v>0.28260000000000002</v>
+      </c>
+      <c r="Y4" s="27">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="27">
+        <v>0.29720000000000002</v>
+      </c>
+      <c r="AA4" s="27">
+        <v>0.20979999999999999</v>
+      </c>
+      <c r="AB4" s="27">
+        <v>0.246</v>
+      </c>
+      <c r="AC4" s="27">
+        <v>5844</v>
+      </c>
+      <c r="AD4" s="27">
+        <v>0.34599999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="11:30">
       <c r="K5" s="26" t="s">
         <v>41</v>
       </c>
@@ -3299,8 +3579,44 @@
       <c r="M5" s="26">
         <v>0.51732072597034895</v>
       </c>
-    </row>
-    <row r="6" spans="11:13">
+      <c r="Q5" s="27">
+        <v>2</v>
+      </c>
+      <c r="R5" s="27">
+        <v>0.32219999999999999</v>
+      </c>
+      <c r="S5" s="27">
+        <v>3.4299999999999997E-2</v>
+      </c>
+      <c r="T5" s="27">
+        <v>6.2E-2</v>
+      </c>
+      <c r="U5" s="27">
+        <v>19023</v>
+      </c>
+      <c r="V5" s="27">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="Y5" s="27">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="27">
+        <v>0.58330000000000004</v>
+      </c>
+      <c r="AA5" s="27">
+        <v>0.10050000000000001</v>
+      </c>
+      <c r="AB5" s="27">
+        <v>0.1714</v>
+      </c>
+      <c r="AC5" s="27">
+        <v>19023</v>
+      </c>
+      <c r="AD5" s="27">
+        <v>0.27139999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="11:30">
       <c r="K6" s="26" t="s">
         <v>42</v>
       </c>
@@ -3310,8 +3626,44 @@
       <c r="M6" s="26">
         <v>0.489608064542154</v>
       </c>
-    </row>
-    <row r="7" spans="11:13">
+      <c r="Q6" s="27">
+        <v>3</v>
+      </c>
+      <c r="R6" s="27">
+        <v>0.4854</v>
+      </c>
+      <c r="S6" s="27">
+        <v>3.6600000000000001E-2</v>
+      </c>
+      <c r="T6" s="27">
+        <v>6.8099999999999994E-2</v>
+      </c>
+      <c r="U6" s="27">
+        <v>12256</v>
+      </c>
+      <c r="V6" s="27">
+        <v>0.1681</v>
+      </c>
+      <c r="Y6" s="27">
+        <v>3</v>
+      </c>
+      <c r="Z6" s="27">
+        <v>0.70069999999999999</v>
+      </c>
+      <c r="AA6" s="27">
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="AB6" s="27">
+        <v>0.1227</v>
+      </c>
+      <c r="AC6" s="27">
+        <v>12256</v>
+      </c>
+      <c r="AD6" s="27">
+        <v>0.22270000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="11:30">
       <c r="K7" s="26" t="s">
         <v>43</v>
       </c>
@@ -3321,8 +3673,44 @@
       <c r="M7" s="26">
         <v>0.44171231536794398</v>
       </c>
-    </row>
-    <row r="8" spans="11:13">
+      <c r="Q7" s="27">
+        <v>4</v>
+      </c>
+      <c r="R7" s="27">
+        <v>0.71040000000000003</v>
+      </c>
+      <c r="S7" s="27">
+        <v>0.1082</v>
+      </c>
+      <c r="T7" s="27">
+        <v>0.18770000000000001</v>
+      </c>
+      <c r="U7" s="27">
+        <v>17031</v>
+      </c>
+      <c r="V7" s="27">
+        <v>0.28770000000000001</v>
+      </c>
+      <c r="Y7" s="27">
+        <v>4</v>
+      </c>
+      <c r="Z7" s="27">
+        <v>0.61680000000000001</v>
+      </c>
+      <c r="AA7" s="27">
+        <v>0.1454</v>
+      </c>
+      <c r="AB7" s="27">
+        <v>0.2354</v>
+      </c>
+      <c r="AC7" s="27">
+        <v>17031</v>
+      </c>
+      <c r="AD7" s="27">
+        <v>0.33540000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="11:30">
       <c r="K8" s="26" t="s">
         <v>44</v>
       </c>
@@ -3332,8 +3720,44 @@
       <c r="M8" s="26">
         <v>0.52162428733659205</v>
       </c>
-    </row>
-    <row r="9" spans="11:13">
+      <c r="Q8" s="27">
+        <v>5</v>
+      </c>
+      <c r="R8" s="27">
+        <v>7.2900000000000006E-2</v>
+      </c>
+      <c r="S8" s="27">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="T8" s="27">
+        <v>0.1356</v>
+      </c>
+      <c r="U8" s="27">
+        <v>5023</v>
+      </c>
+      <c r="V8" s="27">
+        <v>0.2356</v>
+      </c>
+      <c r="Y8" s="27">
+        <v>5</v>
+      </c>
+      <c r="Z8" s="27">
+        <v>8.0199999999999994E-2</v>
+      </c>
+      <c r="AA8" s="27">
+        <v>0.93669999999999998</v>
+      </c>
+      <c r="AB8" s="27">
+        <v>0.14779999999999999</v>
+      </c>
+      <c r="AC8" s="27">
+        <v>5023</v>
+      </c>
+      <c r="AD8" s="27">
+        <v>0.24779999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="11:30">
       <c r="K9" s="26" t="s">
         <v>45</v>
       </c>
@@ -3344,7 +3768,7 @@
         <v>0.381185756465723</v>
       </c>
     </row>
-    <row r="10" spans="11:13">
+    <row r="10" spans="11:30">
       <c r="K10" s="26" t="s">
         <v>46</v>
       </c>
@@ -3354,414 +3778,2605 @@
       <c r="M10" s="26">
         <v>0.33225283410401901</v>
       </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="M17" t="s">
+      <c r="P10" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q10" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="R10" s="27">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="S10" s="27">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="T10" s="27">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="U10" s="27">
+        <v>78096</v>
+      </c>
+      <c r="X10" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y10" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z10" s="27">
+        <v>0.2014</v>
+      </c>
+      <c r="AA10" s="27">
+        <v>0.2014</v>
+      </c>
+      <c r="AB10" s="27">
+        <v>0.2014</v>
+      </c>
+      <c r="AC10" s="27">
+        <v>78096</v>
+      </c>
+    </row>
+    <row r="11" spans="11:30">
+      <c r="P11" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q11" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="R11" s="27">
+        <v>0.43580000000000002</v>
+      </c>
+      <c r="S11" s="27">
+        <v>0.23569999999999999</v>
+      </c>
+      <c r="T11" s="27">
+        <v>0.14580000000000001</v>
+      </c>
+      <c r="U11" s="27">
+        <v>78096</v>
+      </c>
+      <c r="X11" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y11" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z11" s="27">
+        <v>0.49130000000000001</v>
+      </c>
+      <c r="AA11" s="27">
+        <v>0.28370000000000001</v>
+      </c>
+      <c r="AB11" s="27">
+        <v>0.2132</v>
+      </c>
+      <c r="AC11" s="27">
+        <v>78096</v>
+      </c>
+    </row>
+    <row r="12" spans="11:30">
+      <c r="P12" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q12" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="R12" s="27">
+        <v>0.50919999999999999</v>
+      </c>
+      <c r="S12" s="27">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="T12" s="27">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="U12" s="27">
+        <v>78096</v>
+      </c>
+      <c r="X12" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y12" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z12" s="27">
+        <v>0.57609999999999995</v>
+      </c>
+      <c r="AA12" s="27">
+        <v>0.2014</v>
+      </c>
+      <c r="AB12" s="27">
+        <v>0.22650000000000001</v>
+      </c>
+      <c r="AC12" s="27">
+        <v>78096</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="M17" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N17" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="O17" t="s">
+      <c r="O17" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="P17" t="s">
+      <c r="P17" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="Q17" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="R17" t="s">
+      <c r="R17" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="S17" t="s">
+      <c r="S17" s="27" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
-      <c r="M18">
+    <row r="18" spans="1:23">
+      <c r="M18" s="27">
         <v>0.84130000000000005</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="27">
         <v>0.79590000000000005</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="27">
         <v>0.74170000000000003</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="27">
         <v>0.70430000000000004</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="27">
         <v>0.76090000000000002</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="27">
         <v>0.60129999999999995</v>
       </c>
-      <c r="S18">
+      <c r="S18" s="27">
         <v>0.48270000000000002</v>
       </c>
-      <c r="T18">
+      <c r="T18" s="27">
         <v>18919</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
-      <c r="M19">
+    <row r="19" spans="1:23">
+      <c r="M19" s="27">
         <v>0.71840000000000004</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="27">
         <v>0.65900000000000003</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="27">
         <v>0.63219999999999998</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="27">
         <v>0.56699999999999995</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="27">
         <v>0.50239999999999996</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="27">
         <v>0.4425</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="27">
         <v>0.45040000000000002</v>
       </c>
-      <c r="T19">
+      <c r="T19" s="27">
         <v>5844</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
-      <c r="M20">
+    <row r="20" spans="1:23">
+      <c r="M20" s="27">
         <v>0.72150000000000003</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="27">
         <v>0.66800000000000004</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="27">
         <v>0.64080000000000004</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="27">
         <v>0.51339999999999997</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="27">
         <v>0.66210000000000002</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="27">
         <v>0.48959999999999998</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="27">
         <v>0.49740000000000001</v>
       </c>
-      <c r="T20">
+      <c r="T20" s="27">
         <v>19023</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
-      <c r="M21">
+    <row r="21" spans="1:23">
+      <c r="M21" s="27">
         <v>0.48080000000000001</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="27">
         <v>0.2266</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="27">
         <v>0.22140000000000001</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="27">
         <v>0.2228</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="27">
         <v>0.38400000000000001</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="27">
         <v>0.14580000000000001</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="27">
         <v>0.1565</v>
       </c>
-      <c r="T21">
+      <c r="T21" s="27">
         <v>12256</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
-      <c r="M22">
+    <row r="22" spans="1:23">
+      <c r="M22" s="27">
         <v>0.55920000000000003</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="27">
         <v>0.49509999999999998</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="27">
         <v>0.45450000000000002</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="27">
         <v>0.37390000000000001</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="27">
         <v>0.50349999999999995</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="27">
         <v>0.37569999999999998</v>
       </c>
-      <c r="S22">
+      <c r="S22" s="27">
         <v>0.24629999999999999</v>
       </c>
-      <c r="T22">
+      <c r="T22" s="27">
         <v>17031</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
-      <c r="M23">
+    <row r="23" spans="1:23">
+      <c r="M23" s="27">
         <v>0.35560000000000003</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="27">
         <v>0.25929999999999997</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="27">
         <v>0.24709999999999999</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="27">
         <v>0.26900000000000002</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" s="27">
         <v>0.31680000000000003</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="27">
         <v>0.23219999999999999</v>
       </c>
-      <c r="S23">
+      <c r="S23" s="27">
         <v>0.1603</v>
       </c>
-      <c r="T23">
+      <c r="T23" s="27">
         <v>5023</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
-      <c r="M25">
+    <row r="25" spans="1:23">
+      <c r="M25" s="27">
         <v>0.61280000000000001</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="27">
         <v>0.51729999999999998</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="27">
         <v>0.48959999999999998</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="27">
         <v>0.44169999999999998</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="27">
         <v>0.52159999999999995</v>
       </c>
-      <c r="R25">
+      <c r="R25" s="27">
         <v>0.38119999999999998</v>
       </c>
-      <c r="S25">
+      <c r="S25" s="27">
         <v>0.33229999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
-      <c r="M26">
+    <row r="26" spans="1:23">
+      <c r="M26" s="27">
         <v>0.65359999999999996</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="27">
         <v>0.56499999999999995</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="27">
         <v>0.53280000000000005</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="27">
         <v>0.47189999999999999</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" s="27">
         <v>0.57369999999999999</v>
       </c>
-      <c r="R26">
+      <c r="R26" s="27">
         <v>0.4178</v>
       </c>
-      <c r="S26">
+      <c r="S26" s="27">
         <v>0.3604</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
+    <row r="30" spans="1:23">
+      <c r="A30" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="27" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="B32">
+      <c r="K30" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="L30" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="M30" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="N30" s="33"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="33"/>
+      <c r="U30" s="33"/>
+      <c r="V30" s="33"/>
+      <c r="W30" s="33"/>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="N31" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="O31" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="P31" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q31" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="R31" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="S31" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="T31" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="U31" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="V31" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="W31" s="34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="B32" s="27">
         <v>0</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="27">
         <v>0.2989</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="27">
         <v>0.87939999999999996</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="27">
         <v>0.4461</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="27">
         <v>5023</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="B33">
+      <c r="K32" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="L32" s="30">
+        <v>5023</v>
+      </c>
+      <c r="M32" s="31">
+        <v>0.4461</v>
+      </c>
+      <c r="N32" s="32">
+        <v>0.42109999999999997</v>
+      </c>
+      <c r="O32" s="32">
+        <v>0.35560000000000003</v>
+      </c>
+      <c r="P32" s="32">
+        <v>0.25929999999999997</v>
+      </c>
+      <c r="Q32" s="32">
+        <v>0.24709999999999999</v>
+      </c>
+      <c r="R32" s="32">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="S32" s="32">
+        <v>0.31680000000000003</v>
+      </c>
+      <c r="T32" s="32">
+        <v>0.23219999999999999</v>
+      </c>
+      <c r="U32" s="32">
+        <v>0.1603</v>
+      </c>
+      <c r="V32" s="32">
+        <v>0.2356</v>
+      </c>
+      <c r="W32" s="32">
+        <v>0.24779999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
+      <c r="B33" s="27">
         <v>1</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="27">
         <v>0.71950000000000003</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="27">
         <v>0.97640000000000005</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="27">
         <v>0.82850000000000001</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="27">
         <v>5844</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="B34">
+      <c r="K33" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="L33" s="30">
+        <v>5844</v>
+      </c>
+      <c r="M33" s="31">
+        <v>0.82850000000000001</v>
+      </c>
+      <c r="N33" s="32">
+        <v>0.75770000000000004</v>
+      </c>
+      <c r="O33" s="32">
+        <v>0.71840000000000004</v>
+      </c>
+      <c r="P33" s="32">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="Q33" s="32">
+        <v>0.63219999999999998</v>
+      </c>
+      <c r="R33" s="32">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="S33" s="32">
+        <v>0.50239999999999996</v>
+      </c>
+      <c r="T33" s="32">
+        <v>0.4425</v>
+      </c>
+      <c r="U33" s="32">
+        <v>0.45040000000000002</v>
+      </c>
+      <c r="V33" s="32">
+        <v>0.28260000000000002</v>
+      </c>
+      <c r="W33" s="32">
+        <v>0.34599999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
+      <c r="B34" s="27">
         <v>2</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="27">
         <v>0.80410000000000004</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="27">
         <v>0.8508</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="27">
         <v>0.82679999999999998</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="27">
         <v>19023</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="B35">
+      <c r="K34" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="L34" s="30">
+        <v>19023</v>
+      </c>
+      <c r="M34" s="31">
+        <v>0.82679999999999998</v>
+      </c>
+      <c r="N34" s="32">
+        <v>0.80720000000000003</v>
+      </c>
+      <c r="O34" s="32">
+        <v>0.72150000000000003</v>
+      </c>
+      <c r="P34" s="32">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="Q34" s="32">
+        <v>0.64080000000000004</v>
+      </c>
+      <c r="R34" s="32">
+        <v>0.51339999999999997</v>
+      </c>
+      <c r="S34" s="32">
+        <v>0.66210000000000002</v>
+      </c>
+      <c r="T34" s="32">
+        <v>0.48959999999999998</v>
+      </c>
+      <c r="U34" s="32">
+        <v>0.49740000000000001</v>
+      </c>
+      <c r="V34" s="32">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="W34" s="32">
+        <v>0.27139999999999997</v>
+      </c>
+      <c r="Z34" s="27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
+      <c r="B35" s="27">
         <v>3</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="27">
         <v>0.92700000000000005</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="27">
         <v>0.88019999999999998</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="27">
         <v>0.90300000000000002</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="27">
         <v>18919</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="B36">
+      <c r="K35" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="L35" s="30">
+        <v>18919</v>
+      </c>
+      <c r="M35" s="31">
+        <v>0.91649999999999998</v>
+      </c>
+      <c r="N35" s="32">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="O35" s="32">
+        <v>0.84130000000000005</v>
+      </c>
+      <c r="P35" s="32">
+        <v>0.79590000000000005</v>
+      </c>
+      <c r="Q35" s="32">
+        <v>0.74170000000000003</v>
+      </c>
+      <c r="R35" s="32">
+        <v>0.70430000000000004</v>
+      </c>
+      <c r="S35" s="32">
+        <v>0.76090000000000002</v>
+      </c>
+      <c r="T35" s="32">
+        <v>0.60129999999999995</v>
+      </c>
+      <c r="U35" s="32">
+        <v>0.48270000000000002</v>
+      </c>
+      <c r="V35" s="32">
+        <v>0.33889999999999998</v>
+      </c>
+      <c r="W35" s="32">
+        <v>0.35589999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
+      <c r="B36" s="27">
         <v>4</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="27">
         <v>0.87739999999999996</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="27">
         <v>0.62470000000000003</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="27">
         <v>0.7298</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="27">
         <v>17031</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="B37">
+      <c r="K36" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="L36" s="30">
+        <v>17031</v>
+      </c>
+      <c r="M36" s="31">
+        <v>0.7298</v>
+      </c>
+      <c r="N36" s="32">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="O36" s="32">
+        <v>0.55920000000000003</v>
+      </c>
+      <c r="P36" s="32">
+        <v>0.49509999999999998</v>
+      </c>
+      <c r="Q36" s="32">
+        <v>0.45450000000000002</v>
+      </c>
+      <c r="R36" s="32">
+        <v>0.37390000000000001</v>
+      </c>
+      <c r="S36" s="32">
+        <v>0.50349999999999995</v>
+      </c>
+      <c r="T36" s="32">
+        <v>0.37569999999999998</v>
+      </c>
+      <c r="U36" s="32">
+        <v>0.24629999999999999</v>
+      </c>
+      <c r="V36" s="32">
+        <v>0.28770000000000001</v>
+      </c>
+      <c r="W36" s="32">
+        <v>0.33540000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
+      <c r="B37" s="27">
         <v>5</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="27">
         <v>0.90190000000000003</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="27">
         <v>0.3805</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="27">
         <v>0.53520000000000001</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="27">
         <v>12256</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
+      <c r="K37" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="L37" s="30">
+        <v>12256</v>
+      </c>
+      <c r="M37" s="32">
+        <v>0.58260000000000001</v>
+      </c>
+      <c r="N37" s="31">
+        <v>0.59319999999999995</v>
+      </c>
+      <c r="O37" s="32">
+        <v>0.35560000000000003</v>
+      </c>
+      <c r="P37" s="32">
+        <v>0.25929999999999997</v>
+      </c>
+      <c r="Q37" s="32">
+        <v>0.24709999999999999</v>
+      </c>
+      <c r="R37" s="32">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="S37" s="32">
+        <v>0.31680000000000003</v>
+      </c>
+      <c r="T37" s="32">
+        <v>0.23219999999999999</v>
+      </c>
+      <c r="U37" s="32">
+        <v>0.1603</v>
+      </c>
+      <c r="V37" s="32">
+        <v>0.1681</v>
+      </c>
+      <c r="W37" s="32">
+        <v>0.22270000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
+      <c r="A39" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="27">
         <v>0.746</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="27">
         <v>0.746</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="27">
         <v>0.746</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="27">
         <v>78096</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
+    <row r="40" spans="1:26">
+      <c r="A40" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="27">
         <v>0.75480000000000003</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="27">
         <v>0.76529999999999998</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="27">
         <v>0.71160000000000001</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="27">
         <v>78096</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
+      <c r="M40" s="28"/>
+    </row>
+    <row r="41" spans="1:26">
+      <c r="A41" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="27">
         <v>0.82640000000000002</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="27">
         <v>0.746</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="27">
         <v>0.754</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="27">
         <v>78096</v>
       </c>
     </row>
+    <row r="45" spans="1:26">
+      <c r="C45" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F45" s="27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26">
+      <c r="B47" s="27">
+        <v>0</v>
+      </c>
+      <c r="C47" s="27">
+        <v>0.27239999999999998</v>
+      </c>
+      <c r="D47" s="27">
+        <v>0.92710000000000004</v>
+      </c>
+      <c r="E47" s="27">
+        <v>0.42109999999999997</v>
+      </c>
+      <c r="F47" s="27">
+        <v>5023</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26">
+      <c r="B48" s="27">
+        <v>1</v>
+      </c>
+      <c r="C48" s="27">
+        <v>0.61550000000000005</v>
+      </c>
+      <c r="D48" s="27">
+        <v>0.98560000000000003</v>
+      </c>
+      <c r="E48" s="27">
+        <v>0.75770000000000004</v>
+      </c>
+      <c r="F48" s="27">
+        <v>5844</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="B49" s="27">
+        <v>2</v>
+      </c>
+      <c r="C49" s="27">
+        <v>0.86140000000000005</v>
+      </c>
+      <c r="D49" s="27">
+        <v>0.75929999999999997</v>
+      </c>
+      <c r="E49" s="27">
+        <v>0.80720000000000003</v>
+      </c>
+      <c r="F49" s="27">
+        <v>19023</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="B50" s="27">
+        <v>3</v>
+      </c>
+      <c r="C50" s="27">
+        <v>0.95040000000000002</v>
+      </c>
+      <c r="D50" s="27">
+        <v>0.88490000000000002</v>
+      </c>
+      <c r="E50" s="27">
+        <v>0.91649999999999998</v>
+      </c>
+      <c r="F50" s="27">
+        <v>18919</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="B51" s="27">
+        <v>4</v>
+      </c>
+      <c r="C51" s="27">
+        <v>0.90180000000000005</v>
+      </c>
+      <c r="D51" s="27">
+        <v>0.60470000000000002</v>
+      </c>
+      <c r="E51" s="27">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="F51" s="27">
+        <v>17031</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="B52" s="27">
+        <v>5</v>
+      </c>
+      <c r="C52" s="27">
+        <v>0.9032</v>
+      </c>
+      <c r="D52" s="27">
+        <v>0.43</v>
+      </c>
+      <c r="E52" s="27">
+        <v>0.58260000000000001</v>
+      </c>
+      <c r="F52" s="27">
+        <v>12256</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" s="27">
+        <v>0.73209999999999997</v>
+      </c>
+      <c r="D54" s="27">
+        <v>0.73209999999999997</v>
+      </c>
+      <c r="E54" s="27">
+        <v>0.73209999999999997</v>
+      </c>
+      <c r="F54" s="27">
+        <v>78096</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" s="27">
+        <v>0.75080000000000002</v>
+      </c>
+      <c r="D55" s="27">
+        <v>0.76529999999999998</v>
+      </c>
+      <c r="E55" s="27">
+        <v>0.70150000000000001</v>
+      </c>
+      <c r="F55" s="27">
+        <v>78096</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" s="27">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="D56" s="27">
+        <v>0.73209999999999997</v>
+      </c>
+      <c r="E56" s="27">
+        <v>0.75170000000000003</v>
+      </c>
+      <c r="F56" s="27">
+        <v>78096</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M30:W30"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y121"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="12" width="8.6640625" style="35"/>
+    <col min="13" max="13" width="14.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.58203125" style="35" customWidth="1"/>
+    <col min="15" max="15" width="9.75" style="35" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.6640625" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="C1" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" s="35">
+        <v>0</v>
+      </c>
+      <c r="C3" s="35">
+        <v>0.82440000000000002</v>
+      </c>
+      <c r="D3" s="35">
+        <v>0.76590000000000003</v>
+      </c>
+      <c r="E3" s="35">
+        <v>0.79410000000000003</v>
+      </c>
+      <c r="F3" s="35">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" s="35">
+        <v>1</v>
+      </c>
+      <c r="C4" s="35">
+        <v>0.8548</v>
+      </c>
+      <c r="D4" s="35">
+        <v>0.83160000000000001</v>
+      </c>
+      <c r="E4" s="35">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="F4" s="35">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" s="35">
+        <v>2</v>
+      </c>
+      <c r="C5" s="35">
+        <v>0.82730000000000004</v>
+      </c>
+      <c r="D5" s="35">
+        <v>0.83650000000000002</v>
+      </c>
+      <c r="E5" s="35">
+        <v>0.83189999999999997</v>
+      </c>
+      <c r="F5" s="35">
+        <v>3218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" s="35">
+        <v>3</v>
+      </c>
+      <c r="C6" s="35">
+        <v>0.32390000000000002</v>
+      </c>
+      <c r="D6" s="35">
+        <v>0.62160000000000004</v>
+      </c>
+      <c r="E6" s="35">
+        <v>0.4259</v>
+      </c>
+      <c r="F6" s="35">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="35">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="D8" s="35">
+        <v>0.81169999999999998</v>
+      </c>
+      <c r="E8" s="35">
+        <v>0.81040000000000001</v>
+      </c>
+      <c r="F8" s="35">
+        <v>9008</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="35">
+        <v>0.70760000000000001</v>
+      </c>
+      <c r="D9" s="35">
+        <v>0.76390000000000002</v>
+      </c>
+      <c r="E9" s="35">
+        <v>0.72370000000000001</v>
+      </c>
+      <c r="F9" s="35">
+        <v>9008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="35">
+        <v>0.82250000000000001</v>
+      </c>
+      <c r="D10" s="35">
+        <v>0.81169999999999998</v>
+      </c>
+      <c r="E10" s="35">
+        <v>0.81540000000000001</v>
+      </c>
+      <c r="F10" s="35">
+        <v>9008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="35">
+        <v>0.82410000000000005</v>
+      </c>
+      <c r="D11" s="35">
+        <v>0.82930000000000004</v>
+      </c>
+      <c r="E11" s="35">
+        <v>0.80840000000000001</v>
+      </c>
+      <c r="F11" s="35">
+        <v>9008</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="C16" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="B18" s="35">
+        <v>0</v>
+      </c>
+      <c r="C18" s="35">
+        <v>0.97470000000000001</v>
+      </c>
+      <c r="D18" s="35">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E18" s="35">
+        <v>6.9400000000000003E-2</v>
+      </c>
+      <c r="F18" s="35">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="B19" s="35">
+        <v>1</v>
+      </c>
+      <c r="C19" s="35">
+        <v>0.82830000000000004</v>
+      </c>
+      <c r="D19" s="35">
+        <v>0.78969999999999996</v>
+      </c>
+      <c r="E19" s="35">
+        <v>0.80859999999999999</v>
+      </c>
+      <c r="F19" s="35">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="B20" s="35">
+        <v>2</v>
+      </c>
+      <c r="C20" s="35">
+        <v>0.90029999999999999</v>
+      </c>
+      <c r="D20" s="35">
+        <v>0.68179999999999996</v>
+      </c>
+      <c r="E20" s="35">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="F20" s="35">
+        <v>3218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="B21" s="35">
+        <v>3</v>
+      </c>
+      <c r="C21" s="35">
+        <v>0</v>
+      </c>
+      <c r="D21" s="35">
+        <v>0</v>
+      </c>
+      <c r="E21" s="35">
+        <v>0</v>
+      </c>
+      <c r="F21" s="35">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="A23" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="35">
+        <v>0.86080000000000001</v>
+      </c>
+      <c r="D23" s="35">
+        <v>0.5494</v>
+      </c>
+      <c r="E23" s="35">
+        <v>0.67069999999999996</v>
+      </c>
+      <c r="F23" s="35">
+        <v>9008</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="A24" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="35">
+        <v>0.67579999999999996</v>
+      </c>
+      <c r="D24" s="35">
+        <v>0.37690000000000001</v>
+      </c>
+      <c r="E24" s="35">
+        <v>0.41349999999999998</v>
+      </c>
+      <c r="F24" s="35">
+        <v>9008</v>
+      </c>
+      <c r="M24" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="N24" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="O24" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="33"/>
+      <c r="X24" s="33"/>
+      <c r="Y24" s="33"/>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="A25" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="35">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="D25" s="35">
+        <v>0.5494</v>
+      </c>
+      <c r="E25" s="35">
+        <v>0.59809999999999997</v>
+      </c>
+      <c r="F25" s="35">
+        <v>9008</v>
+      </c>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="P25" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q25" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="R25" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="S25" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="T25" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="U25" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="V25" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="W25" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="X25" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y25" s="34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
+      <c r="A26" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="35">
+        <v>0.65439999999999998</v>
+      </c>
+      <c r="D26" s="35">
+        <v>0.57709999999999995</v>
+      </c>
+      <c r="E26" s="35">
+        <v>0.59830000000000005</v>
+      </c>
+      <c r="F26" s="35">
+        <v>9008</v>
+      </c>
+      <c r="M26" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="N26" s="30">
+        <v>2140</v>
+      </c>
+      <c r="O26" s="32">
+        <v>0.79410000000000003</v>
+      </c>
+      <c r="P26" s="32">
+        <v>0.7621</v>
+      </c>
+      <c r="Q26" s="32">
+        <v>6.9400000000000003E-2</v>
+      </c>
+      <c r="R26" s="32">
+        <v>0.80220000000000002</v>
+      </c>
+      <c r="S26" s="32">
+        <v>0.62509999999999999</v>
+      </c>
+      <c r="T26" s="32">
+        <v>0.90949999999999998</v>
+      </c>
+      <c r="U26" s="32">
+        <v>0.60089999999999999</v>
+      </c>
+      <c r="V26" s="31">
+        <v>0.94110000000000005</v>
+      </c>
+      <c r="W26" s="32">
+        <v>0.52070000000000005</v>
+      </c>
+      <c r="X26" s="32">
+        <v>0.43419999999999997</v>
+      </c>
+      <c r="Y26" s="32">
+        <v>0.64880000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
+      <c r="M27" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="N27" s="30">
+        <v>3391</v>
+      </c>
+      <c r="O27" s="32">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="P27" s="32">
+        <v>0.82669999999999999</v>
+      </c>
+      <c r="Q27" s="32">
+        <v>0.80859999999999999</v>
+      </c>
+      <c r="R27" s="32">
+        <v>0.87749999999999995</v>
+      </c>
+      <c r="S27" s="32">
+        <v>0.82630000000000003</v>
+      </c>
+      <c r="T27" s="32">
+        <v>0.95089999999999997</v>
+      </c>
+      <c r="U27" s="32">
+        <v>0.7167</v>
+      </c>
+      <c r="V27" s="31">
+        <v>0.95620000000000005</v>
+      </c>
+      <c r="W27" s="32">
+        <v>0.76090000000000002</v>
+      </c>
+      <c r="X27" s="32">
+        <v>0.68149999999999999</v>
+      </c>
+      <c r="Y27" s="32">
+        <v>0.76029999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
+      <c r="A28" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="M28" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="N28" s="30">
+        <v>3218</v>
+      </c>
+      <c r="O28" s="32">
+        <v>0.83189999999999997</v>
+      </c>
+      <c r="P28" s="32">
+        <v>0.80720000000000003</v>
+      </c>
+      <c r="Q28" s="32">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="R28" s="32">
+        <v>0.87960000000000005</v>
+      </c>
+      <c r="S28" s="32">
+        <v>0.83179999999999998</v>
+      </c>
+      <c r="T28" s="32">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="U28" s="32">
+        <v>0.76649999999999996</v>
+      </c>
+      <c r="V28" s="31">
+        <v>0.95960000000000001</v>
+      </c>
+      <c r="W28" s="32">
+        <v>0.75739999999999996</v>
+      </c>
+      <c r="X28" s="32">
+        <v>0.72840000000000005</v>
+      </c>
+      <c r="Y28" s="32">
+        <v>0.71740000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
+      <c r="M29" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="N29" s="30">
+        <v>259</v>
+      </c>
+      <c r="O29" s="32">
+        <v>0.4259</v>
+      </c>
+      <c r="P29" s="32">
+        <v>0.41889999999999999</v>
+      </c>
+      <c r="Q29" s="32">
+        <v>0</v>
+      </c>
+      <c r="R29" s="32">
+        <v>0.31819999999999998</v>
+      </c>
+      <c r="S29" s="32">
+        <v>0</v>
+      </c>
+      <c r="T29" s="32">
+        <v>0.81189999999999996</v>
+      </c>
+      <c r="U29" s="32">
+        <v>7.3499999999999996E-2</v>
+      </c>
+      <c r="V29" s="31">
+        <v>0.92369999999999997</v>
+      </c>
+      <c r="W29" s="32">
+        <v>0.35439999999999999</v>
+      </c>
+      <c r="X29" s="32">
+        <v>0.16789999999999999</v>
+      </c>
+      <c r="Y29" s="32">
+        <v>0.32950000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
+      <c r="C31" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="B33" s="35">
+        <v>0</v>
+      </c>
+      <c r="C33" s="35">
+        <v>0.91139999999999999</v>
+      </c>
+      <c r="D33" s="35">
+        <v>0.71640000000000004</v>
+      </c>
+      <c r="E33" s="35">
+        <v>0.80220000000000002</v>
+      </c>
+      <c r="F33" s="35">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="B34" s="35">
+        <v>1</v>
+      </c>
+      <c r="C34" s="35">
+        <v>0.85880000000000001</v>
+      </c>
+      <c r="D34" s="35">
+        <v>0.89710000000000001</v>
+      </c>
+      <c r="E34" s="35">
+        <v>0.87749999999999995</v>
+      </c>
+      <c r="F34" s="35">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="B35" s="35">
+        <v>2</v>
+      </c>
+      <c r="C35" s="35">
+        <v>0.92430000000000001</v>
+      </c>
+      <c r="D35" s="35">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="E35" s="35">
+        <v>0.87960000000000005</v>
+      </c>
+      <c r="F35" s="35">
+        <v>3218</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="B36" s="35">
+        <v>3</v>
+      </c>
+      <c r="C36" s="35">
+        <v>1</v>
+      </c>
+      <c r="D36" s="35">
+        <v>0.18920000000000001</v>
+      </c>
+      <c r="E36" s="35">
+        <v>0.31819999999999998</v>
+      </c>
+      <c r="F36" s="35">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="35">
+        <v>0.89380000000000004</v>
+      </c>
+      <c r="D38" s="35">
+        <v>0.81310000000000004</v>
+      </c>
+      <c r="E38" s="35">
+        <v>0.85150000000000003</v>
+      </c>
+      <c r="F38" s="35">
+        <v>9008</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="35">
+        <v>0.92359999999999998</v>
+      </c>
+      <c r="D39" s="35">
+        <v>0.66039999999999999</v>
+      </c>
+      <c r="E39" s="35">
+        <v>0.71940000000000004</v>
+      </c>
+      <c r="F39" s="35">
+        <v>9008</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="35">
+        <v>0.89880000000000004</v>
+      </c>
+      <c r="D40" s="35">
+        <v>0.81310000000000004</v>
+      </c>
+      <c r="E40" s="35">
+        <v>0.84430000000000005</v>
+      </c>
+      <c r="F40" s="35">
+        <v>9008</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="35">
+        <v>0.84719999999999995</v>
+      </c>
+      <c r="D41" s="35">
+        <v>0.8276</v>
+      </c>
+      <c r="E41" s="35">
+        <v>0.82379999999999998</v>
+      </c>
+      <c r="F41" s="35">
+        <v>9008</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="C48" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F48" s="35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="B50" s="35">
+        <v>0</v>
+      </c>
+      <c r="C50" s="35">
+        <v>0.87890000000000001</v>
+      </c>
+      <c r="D50" s="35">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="E50" s="35">
+        <v>0.62509999999999999</v>
+      </c>
+      <c r="F50" s="35">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="B51" s="35">
+        <v>1</v>
+      </c>
+      <c r="C51" s="35">
+        <v>0.81620000000000004</v>
+      </c>
+      <c r="D51" s="35">
+        <v>0.83660000000000001</v>
+      </c>
+      <c r="E51" s="35">
+        <v>0.82630000000000003</v>
+      </c>
+      <c r="F51" s="35">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="B52" s="35">
+        <v>2</v>
+      </c>
+      <c r="C52" s="35">
+        <v>0.88529999999999998</v>
+      </c>
+      <c r="D52" s="35">
+        <v>0.7843</v>
+      </c>
+      <c r="E52" s="35">
+        <v>0.83179999999999998</v>
+      </c>
+      <c r="F52" s="35">
+        <v>3218</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="B53" s="35">
+        <v>3</v>
+      </c>
+      <c r="C53" s="35">
+        <v>0</v>
+      </c>
+      <c r="D53" s="35">
+        <v>0</v>
+      </c>
+      <c r="E53" s="35">
+        <v>0</v>
+      </c>
+      <c r="F53" s="35">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" s="35">
+        <v>0.85229999999999995</v>
+      </c>
+      <c r="D55" s="35">
+        <v>0.71040000000000003</v>
+      </c>
+      <c r="E55" s="35">
+        <v>0.77490000000000003</v>
+      </c>
+      <c r="F55" s="35">
+        <v>9008</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" s="35">
+        <v>0.64510000000000001</v>
+      </c>
+      <c r="D56" s="35">
+        <v>0.52649999999999997</v>
+      </c>
+      <c r="E56" s="35">
+        <v>0.57079999999999997</v>
+      </c>
+      <c r="F56" s="35">
+        <v>9008</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57" s="35">
+        <v>0.83230000000000004</v>
+      </c>
+      <c r="D57" s="35">
+        <v>0.71040000000000003</v>
+      </c>
+      <c r="E57" s="35">
+        <v>0.75670000000000004</v>
+      </c>
+      <c r="F57" s="35">
+        <v>9008</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58" s="35">
+        <v>0.77969999999999995</v>
+      </c>
+      <c r="D58" s="35">
+        <v>0.73529999999999995</v>
+      </c>
+      <c r="E58" s="35">
+        <v>0.73880000000000001</v>
+      </c>
+      <c r="F58" s="35">
+        <v>9008</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C60" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D60" s="35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="C65" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E65" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F65" s="35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="B67" s="35">
+        <v>0</v>
+      </c>
+      <c r="C67" s="35">
+        <v>0.98470000000000002</v>
+      </c>
+      <c r="D67" s="35">
+        <v>0.84489999999999998</v>
+      </c>
+      <c r="E67" s="35">
+        <v>0.90949999999999998</v>
+      </c>
+      <c r="F67" s="35">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="B68" s="35">
+        <v>1</v>
+      </c>
+      <c r="C68" s="35">
+        <v>0.96279999999999999</v>
+      </c>
+      <c r="D68" s="35">
+        <v>0.93930000000000002</v>
+      </c>
+      <c r="E68" s="35">
+        <v>0.95089999999999997</v>
+      </c>
+      <c r="F68" s="35">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="B69" s="35">
+        <v>2</v>
+      </c>
+      <c r="C69" s="35">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="D69" s="35">
+        <v>0.93189999999999995</v>
+      </c>
+      <c r="E69" s="35">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="F69" s="35">
+        <v>3218</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="B70" s="35">
+        <v>3</v>
+      </c>
+      <c r="C70" s="35">
+        <v>1</v>
+      </c>
+      <c r="D70" s="35">
+        <v>0.68340000000000001</v>
+      </c>
+      <c r="E70" s="35">
+        <v>0.81189999999999996</v>
+      </c>
+      <c r="F70" s="35">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B72" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C72" s="35">
+        <v>0.9728</v>
+      </c>
+      <c r="D72" s="35">
+        <v>0.90690000000000004</v>
+      </c>
+      <c r="E72" s="35">
+        <v>0.93869999999999998</v>
+      </c>
+      <c r="F72" s="35">
+        <v>9008</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B73" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C73" s="35">
+        <v>0.98060000000000003</v>
+      </c>
+      <c r="D73" s="35">
+        <v>0.84989999999999999</v>
+      </c>
+      <c r="E73" s="35">
+        <v>0.90629999999999999</v>
+      </c>
+      <c r="F73" s="35">
+        <v>9008</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B74" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C74" s="35">
+        <v>0.97340000000000004</v>
+      </c>
+      <c r="D74" s="35">
+        <v>0.90690000000000004</v>
+      </c>
+      <c r="E74" s="35">
+        <v>0.93779999999999997</v>
+      </c>
+      <c r="F74" s="35">
+        <v>9008</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C75" s="35">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="D75" s="35">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="E75" s="35">
+        <v>0.90939999999999999</v>
+      </c>
+      <c r="F75" s="35">
+        <v>9008</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B77" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="C77" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="D77" s="35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="C81" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D81" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E81" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F81" s="35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="B83" s="35">
+        <v>0</v>
+      </c>
+      <c r="C83" s="35">
+        <v>0.68989999999999996</v>
+      </c>
+      <c r="D83" s="35">
+        <v>0.53220000000000001</v>
+      </c>
+      <c r="E83" s="35">
+        <v>0.60089999999999999</v>
+      </c>
+      <c r="F83" s="35">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="B84" s="35">
+        <v>1</v>
+      </c>
+      <c r="C84" s="35">
+        <v>0.74990000000000001</v>
+      </c>
+      <c r="D84" s="35">
+        <v>0.68620000000000003</v>
+      </c>
+      <c r="E84" s="35">
+        <v>0.7167</v>
+      </c>
+      <c r="F84" s="35">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="B85" s="35">
+        <v>2</v>
+      </c>
+      <c r="C85" s="35">
+        <v>0.77270000000000005</v>
+      </c>
+      <c r="D85" s="35">
+        <v>0.76039999999999996</v>
+      </c>
+      <c r="E85" s="35">
+        <v>0.76649999999999996</v>
+      </c>
+      <c r="F85" s="35">
+        <v>3218</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="B86" s="35">
+        <v>3</v>
+      </c>
+      <c r="C86" s="35">
+        <v>0.76919999999999999</v>
+      </c>
+      <c r="D86" s="35">
+        <v>3.8600000000000002E-2</v>
+      </c>
+      <c r="E86" s="35">
+        <v>7.3499999999999996E-2</v>
+      </c>
+      <c r="F86" s="35">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B88" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C88" s="35">
+        <v>0.74650000000000005</v>
+      </c>
+      <c r="D88" s="35">
+        <v>0.65749999999999997</v>
+      </c>
+      <c r="E88" s="35">
+        <v>0.69920000000000004</v>
+      </c>
+      <c r="F88" s="35">
+        <v>9008</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B89" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C89" s="35">
+        <v>0.74539999999999995</v>
+      </c>
+      <c r="D89" s="35">
+        <v>0.50439999999999996</v>
+      </c>
+      <c r="E89" s="35">
+        <v>0.53939999999999999</v>
+      </c>
+      <c r="F89" s="35">
+        <v>9008</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B90" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C90" s="35">
+        <v>0.74429999999999996</v>
+      </c>
+      <c r="D90" s="35">
+        <v>0.65749999999999997</v>
+      </c>
+      <c r="E90" s="35">
+        <v>0.6885</v>
+      </c>
+      <c r="F90" s="35">
+        <v>9008</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B91" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C91" s="35">
+        <v>0.69369999999999998</v>
+      </c>
+      <c r="D91" s="35">
+        <v>0.67320000000000002</v>
+      </c>
+      <c r="E91" s="35">
+        <v>0.66239999999999999</v>
+      </c>
+      <c r="F91" s="35">
+        <v>9008</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="C93" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="D93" s="35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="C98" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D98" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E98" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F98" s="35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="B100" s="35">
+        <v>0</v>
+      </c>
+      <c r="C100" s="35">
+        <v>0.94189999999999996</v>
+      </c>
+      <c r="D100" s="35">
+        <v>0.94020000000000004</v>
+      </c>
+      <c r="E100" s="35">
+        <v>0.94110000000000005</v>
+      </c>
+      <c r="F100" s="35">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="B101" s="35">
+        <v>1</v>
+      </c>
+      <c r="C101" s="35">
+        <v>0.95289999999999997</v>
+      </c>
+      <c r="D101" s="35">
+        <v>0.95960000000000001</v>
+      </c>
+      <c r="E101" s="35">
+        <v>0.95620000000000005</v>
+      </c>
+      <c r="F101" s="35">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="B102" s="35">
+        <v>2</v>
+      </c>
+      <c r="C102" s="35">
+        <v>0.95509999999999995</v>
+      </c>
+      <c r="D102" s="35">
+        <v>0.96430000000000005</v>
+      </c>
+      <c r="E102" s="35">
+        <v>0.95960000000000001</v>
+      </c>
+      <c r="F102" s="35">
+        <v>3218</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="B103" s="35">
+        <v>3</v>
+      </c>
+      <c r="C103" s="35">
+        <v>0.9365</v>
+      </c>
+      <c r="D103" s="35">
+        <v>0.91120000000000001</v>
+      </c>
+      <c r="E103" s="35">
+        <v>0.92369999999999997</v>
+      </c>
+      <c r="F103" s="35">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B105" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C105" s="35">
+        <v>0.9506</v>
+      </c>
+      <c r="D105" s="35">
+        <v>0.95530000000000004</v>
+      </c>
+      <c r="E105" s="35">
+        <v>0.95289999999999997</v>
+      </c>
+      <c r="F105" s="35">
+        <v>9008</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B106" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C106" s="35">
+        <v>0.9466</v>
+      </c>
+      <c r="D106" s="35">
+        <v>0.94379999999999997</v>
+      </c>
+      <c r="E106" s="35">
+        <v>0.94520000000000004</v>
+      </c>
+      <c r="F106" s="35">
+        <v>9008</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B107" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C107" s="35">
+        <v>0.9506</v>
+      </c>
+      <c r="D107" s="35">
+        <v>0.95530000000000004</v>
+      </c>
+      <c r="E107" s="35">
+        <v>0.95289999999999997</v>
+      </c>
+      <c r="F107" s="35">
+        <v>9008</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B108" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C108" s="35">
+        <v>0.9476</v>
+      </c>
+      <c r="D108" s="35">
+        <v>0.95550000000000002</v>
+      </c>
+      <c r="E108" s="35">
+        <v>0.94830000000000003</v>
+      </c>
+      <c r="F108" s="35">
+        <v>9008</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="C111" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D111" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E111" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F111" s="35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="B113" s="35">
+        <v>0</v>
+      </c>
+      <c r="C113" s="35">
+        <v>0.91120000000000001</v>
+      </c>
+      <c r="D113" s="35">
+        <v>0.36449999999999999</v>
+      </c>
+      <c r="E113" s="35">
+        <v>0.52070000000000005</v>
+      </c>
+      <c r="F113" s="35">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="B114" s="35">
+        <v>1</v>
+      </c>
+      <c r="C114" s="35">
+        <v>0.77129999999999999</v>
+      </c>
+      <c r="D114" s="35">
+        <v>0.75080000000000002</v>
+      </c>
+      <c r="E114" s="35">
+        <v>0.76090000000000002</v>
+      </c>
+      <c r="F114" s="35">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="B115" s="35">
+        <v>2</v>
+      </c>
+      <c r="C115" s="35">
+        <v>0.8508</v>
+      </c>
+      <c r="D115" s="35">
+        <v>0.68240000000000001</v>
+      </c>
+      <c r="E115" s="35">
+        <v>0.75739999999999996</v>
+      </c>
+      <c r="F115" s="35">
+        <v>3218</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="B116" s="35">
+        <v>3</v>
+      </c>
+      <c r="C116" s="35">
+        <v>0.98250000000000004</v>
+      </c>
+      <c r="D116" s="35">
+        <v>0.2162</v>
+      </c>
+      <c r="E116" s="35">
+        <v>0.35439999999999999</v>
+      </c>
+      <c r="F116" s="35">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B118" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C118" s="35">
+        <v>0.82089999999999996</v>
+      </c>
+      <c r="D118" s="35">
+        <v>0.61919999999999997</v>
+      </c>
+      <c r="E118" s="35">
+        <v>0.70589999999999997</v>
+      </c>
+      <c r="F118" s="35">
+        <v>9008</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B119" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C119" s="35">
+        <v>0.87890000000000001</v>
+      </c>
+      <c r="D119" s="35">
+        <v>0.50349999999999995</v>
+      </c>
+      <c r="E119" s="35">
+        <v>0.59840000000000004</v>
+      </c>
+      <c r="F119" s="35">
+        <v>9008</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B120" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C120" s="35">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="D120" s="35">
+        <v>0.61919999999999997</v>
+      </c>
+      <c r="E120" s="35">
+        <v>0.69089999999999996</v>
+      </c>
+      <c r="F120" s="35">
+        <v>9008</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B121" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C121" s="35">
+        <v>0.68530000000000002</v>
+      </c>
+      <c r="D121" s="35">
+        <v>0.64470000000000005</v>
+      </c>
+      <c r="E121" s="35">
+        <v>0.64629999999999999</v>
+      </c>
+      <c r="F121" s="35">
+        <v>9008</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="O24:Y24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>